--- a/xlsx/工商管理_intext.xlsx
+++ b/xlsx/工商管理_intext.xlsx
@@ -71,7 +71,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A1%8C%E9%8A%B7%E7%AE%A1%E7%90%86</t>
   </si>
   <si>
-    <t>行銷管理</t>
+    <t>行销管理</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B4%A8%E9%87%8F%E7%AE%A1%E7%90%86</t>
